--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3489.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3489.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9072752359784443</v>
+        <v>0.8068333864212036</v>
       </c>
       <c r="B1">
-        <v>1.414454150250078</v>
+        <v>3.668709993362427</v>
       </c>
       <c r="C1">
-        <v>3.525213833743465</v>
+        <v>3.412396907806396</v>
       </c>
       <c r="D1">
-        <v>6.169872910367759</v>
+        <v>2.853431463241577</v>
       </c>
       <c r="E1">
-        <v>2.047221570899608</v>
+        <v>1.766730308532715</v>
       </c>
     </row>
   </sheetData>
